--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>IDDIRECCION</t>
   </si>
@@ -45,6 +45,87 @@
   </si>
   <si>
     <t>REFERENCIAS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>28604</t>
+  </si>
+  <si>
+    <t>kjnkjnk</t>
+  </si>
+  <si>
+    <t>nkjnk</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>31374</t>
+  </si>
+  <si>
+    <t>nkjnkjnk</t>
+  </si>
+  <si>
+    <t>jnkjn</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>29211</t>
+  </si>
+  <si>
+    <t>jbjhbhj</t>
+  </si>
+  <si>
+    <t>bjhb</t>
+  </si>
+  <si>
+    <t>jhbjh</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>18905</t>
+  </si>
+  <si>
+    <t>hbjh</t>
+  </si>
+  <si>
+    <t>bjhbj</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>31724</t>
+  </si>
+  <si>
+    <t>kjnjk</t>
+  </si>
+  <si>
+    <t>nkj</t>
   </si>
 </sst>
 </file>
@@ -414,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,6 +530,132 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>IDDIRECCION</t>
   </si>
@@ -126,6 +126,117 @@
   </si>
   <si>
     <t>nkj</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>30055</t>
+  </si>
+  <si>
+    <t>Calle1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>ninguna referencia</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6672</t>
+  </si>
+  <si>
+    <t>kjnkj</t>
+  </si>
+  <si>
+    <t>nkjn</t>
+  </si>
+  <si>
+    <t>11754</t>
+  </si>
+  <si>
+    <t>kjnkjn</t>
+  </si>
+  <si>
+    <t>jknkjn</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>34771</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>7673</t>
+  </si>
+  <si>
+    <t>kjnjkn</t>
+  </si>
+  <si>
+    <t>lknj</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>10396</t>
+  </si>
+  <si>
+    <t>kjkjn</t>
+  </si>
+  <si>
+    <t>kmk</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>28390</t>
+  </si>
+  <si>
+    <t>hbhbhubu</t>
+  </si>
+  <si>
+    <t>hbuhbu</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33670</t>
+  </si>
+  <si>
+    <t>jnijniunin</t>
+  </si>
+  <si>
+    <t>lmkmkl</t>
   </si>
 </sst>
 </file>
@@ -495,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,6 +767,212 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>IDDIRECCION</t>
   </si>
@@ -237,6 +237,24 @@
   </si>
   <si>
     <t>lmkmkl</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>referecias</t>
   </si>
 </sst>
 </file>
@@ -606,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -953,7 +971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -971,6 +989,32 @@
       </c>
       <c r="G17" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
@@ -10,7 +10,7 @@
     <sheet name="DIR_DIRECCIONES" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DIR_DIRECCIONES">DIR_DIRECCIONES!$A$1:$I$1</definedName>
+    <definedName name="DIR_DIRECCIONES">DIR_DIRECCIONES!$A$1:$H$1</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -18,15 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>IDDIRECCION</t>
   </si>
   <si>
     <t>IDESTADO</t>
-  </si>
-  <si>
-    <t>IDDELGMUNICIPIO</t>
   </si>
   <si>
     <t>IDMUNICIPIO</t>
@@ -624,13 +621,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,16 +658,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -675,19 +678,19 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -695,16 +698,16 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -718,16 +721,16 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -741,19 +744,19 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -761,16 +764,16 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -781,19 +784,19 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
@@ -802,24 +805,24 @@
         <v>38</v>
       </c>
       <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -827,19 +830,19 @@
       <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -847,16 +850,16 @@
       <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
@@ -867,16 +870,16 @@
       <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
@@ -887,16 +890,16 @@
       <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
@@ -907,16 +910,16 @@
       <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -927,19 +930,19 @@
       <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -947,19 +950,19 @@
       <c r="F15" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>65</v>
@@ -967,16 +970,16 @@
       <c r="F16" t="s">
         <v>66</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
@@ -987,19 +990,19 @@
       <c r="F17" t="s">
         <v>71</v>
       </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
         <v>75</v>
@@ -1008,13 +1011,10 @@
         <v>76</v>
       </c>
       <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
         <v>77</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/DIR_DIRECCIONES.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>IDDIRECCION</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>referecias</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>CALLE 1</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>28466</t>
+  </si>
+  <si>
+    <t>calle 1</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>65038</t>
+  </si>
+  <si>
+    <t>jhkjhb</t>
   </si>
 </sst>
 </file>
@@ -621,17 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1015,6 +1033,66 @@
       </c>
       <c r="H18" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
